--- a/results/comparaison/azimuth_prism_cv.xlsx
+++ b/results/comparaison/azimuth_prism_cv.xlsx
@@ -1566,654 +1566,1098 @@
       <c r="GO2">
         <v>0</v>
       </c>
+      <c r="GP2">
+        <v>0</v>
+      </c>
+      <c r="GQ2">
+        <v>0</v>
+      </c>
+      <c r="GR2">
+        <v>0</v>
+      </c>
+      <c r="GS2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:201">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>25.13966480446929</v>
-      </c>
       <c r="C3">
-        <v>45.2513966480447</v>
+        <v>39.5045688675858</v>
       </c>
       <c r="D3">
-        <v>2.011173184357546</v>
+        <v>26.28755483622</v>
       </c>
       <c r="E3">
-        <v>35.19553072625696</v>
-      </c>
-      <c r="F3">
-        <v>19.10614525139664</v>
-      </c>
-      <c r="G3">
-        <v>60.33519553072628</v>
+        <v>18.736462364377</v>
       </c>
       <c r="H3">
-        <v>37.20670391061451</v>
+        <v>44.02324571526007</v>
       </c>
       <c r="I3">
-        <v>14.07821229050279</v>
+        <v>4.590971060756686</v>
+      </c>
+      <c r="J3">
+        <v>24.19451767496847</v>
+      </c>
+      <c r="K3">
+        <v>45.45170878826726</v>
       </c>
       <c r="L3">
-        <v>22.12290502793296</v>
+        <v>82.52473354657975</v>
+      </c>
+      <c r="M3">
+        <v>44.60561753921343</v>
       </c>
       <c r="N3">
-        <v>21.11731843575419</v>
+        <v>6.814433829075398</v>
+      </c>
+      <c r="O3">
+        <v>5.983171072787798</v>
       </c>
       <c r="P3">
-        <v>34.18994413407816</v>
-      </c>
-      <c r="R3">
-        <v>31.17318435754191</v>
-      </c>
-      <c r="S3">
-        <v>35.19553072625699</v>
+        <v>71.5123373503036</v>
+      </c>
+      <c r="Q3">
+        <v>1.500255343323843</v>
       </c>
       <c r="T3">
-        <v>85.47486033519556</v>
+        <v>6.601653749895803</v>
       </c>
       <c r="U3">
-        <v>85.4748603351955</v>
+        <v>7.791289013773806</v>
       </c>
       <c r="V3">
-        <v>56.31284916201119</v>
-      </c>
-      <c r="X3">
-        <v>81.45251396648041</v>
+        <v>22.7324428578617</v>
+      </c>
+      <c r="W3">
+        <v>1.801946000196054</v>
       </c>
       <c r="Y3">
-        <v>12.06703910614526</v>
+        <v>40.21735290964149</v>
       </c>
       <c r="Z3">
-        <v>45.25139664804469</v>
-      </c>
-      <c r="AB3">
-        <v>63.35195530726256</v>
+        <v>38.31154385388965</v>
+      </c>
+      <c r="AA3">
+        <v>12.33297389797994</v>
       </c>
       <c r="AC3">
-        <v>17.09497206703908</v>
+        <v>3.349590799461197</v>
       </c>
       <c r="AD3">
-        <v>22.122905027933</v>
-      </c>
-      <c r="AE3">
-        <v>15.08379888268161</v>
+        <v>2.890254631149205</v>
       </c>
       <c r="AF3">
-        <v>32.17877094972067</v>
+        <v>0.2749748746267073</v>
       </c>
       <c r="AG3">
-        <v>6.033519553072608</v>
-      </c>
-      <c r="AH3">
-        <v>4.022346368715091</v>
+        <v>45.75947554159973</v>
       </c>
       <c r="AI3">
-        <v>22.12290502793296</v>
+        <v>29.30098147032101</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>21.41549119870166</v>
+      </c>
+      <c r="AK3">
+        <v>1.335077771745119</v>
       </c>
       <c r="AL3">
-        <v>33.18435754189944</v>
+        <v>5.421410221249204</v>
+      </c>
+      <c r="AM3">
+        <v>23.16294879495905</v>
       </c>
       <c r="AN3">
-        <v>1.005586592178801</v>
+        <v>10.06451791259589</v>
       </c>
       <c r="AO3">
-        <v>32.1787709497207</v>
+        <v>1.231701205469008</v>
       </c>
       <c r="AP3">
-        <v>51.28491620111728</v>
+        <v>19.4809380503231</v>
       </c>
       <c r="AQ3">
-        <v>5.027932960893878</v>
+        <v>40.12420854642035</v>
       </c>
       <c r="AR3">
-        <v>7.039106145251509</v>
+        <v>30.15578923330251</v>
       </c>
       <c r="AT3">
-        <v>7.039106145251395</v>
+        <v>4.957426547043696</v>
+      </c>
+      <c r="AU3">
+        <v>69.90489308755565</v>
       </c>
       <c r="AV3">
-        <v>78.43575418994418</v>
+        <v>41.88617396317556</v>
       </c>
       <c r="AW3">
-        <v>7.039106145251395</v>
+        <v>3.236532912828807</v>
       </c>
       <c r="AX3">
-        <v>9.050279329608927</v>
+        <v>55.83984558450533</v>
       </c>
       <c r="AY3">
-        <v>13.072625698324</v>
-      </c>
-      <c r="AZ3">
-        <v>12.0670391061452</v>
+        <v>27.20747992259631</v>
       </c>
       <c r="BA3">
-        <v>29.16201117318428</v>
+        <v>65.80764470298058</v>
       </c>
       <c r="BB3">
-        <v>2.011173184357489</v>
+        <v>49.33564400389159</v>
       </c>
       <c r="BC3">
-        <v>40.22346368715083</v>
+        <v>19.68739277769031</v>
       </c>
       <c r="BD3">
-        <v>89.49720670391065</v>
+        <v>23.2362372789881</v>
       </c>
       <c r="BE3">
-        <v>12.0670391061453</v>
+        <v>7.383309534036698</v>
       </c>
       <c r="BF3">
-        <v>2.011173184357517</v>
-      </c>
-      <c r="BG3">
-        <v>16.08938547486025</v>
+        <v>43.51581908274778</v>
       </c>
       <c r="BH3">
-        <v>34.18994413407819</v>
+        <v>0.9718853626145147</v>
       </c>
       <c r="BI3">
-        <v>78.43575418994416</v>
+        <v>17.8158735345079</v>
       </c>
       <c r="BJ3">
-        <v>3.016759776536304</v>
+        <v>9.798101552519029</v>
+      </c>
+      <c r="BK3">
+        <v>25.59408444278749</v>
       </c>
       <c r="BL3">
-        <v>1.005586592178773</v>
-      </c>
-      <c r="BM3">
-        <v>15.08379888268156</v>
+        <v>30.68332413375158</v>
+      </c>
+      <c r="BN3">
+        <v>9.097530055098844</v>
+      </c>
+      <c r="BO3">
+        <v>21.2344404010758</v>
+      </c>
+      <c r="BP3">
+        <v>10.22383190942409</v>
       </c>
       <c r="BQ3">
-        <v>88.49162011173178</v>
+        <v>45.1343822454391</v>
       </c>
       <c r="BR3">
-        <v>41.22905027932961</v>
+        <v>11.2898555154738</v>
       </c>
       <c r="BS3">
-        <v>45.25139664804468</v>
+        <v>40.1355839274913</v>
       </c>
       <c r="BT3">
-        <v>38.21229050279328</v>
+        <v>3.481793079805058</v>
       </c>
       <c r="BU3">
-        <v>27.15083798882681</v>
+        <v>60.74287667712787</v>
       </c>
       <c r="BV3">
-        <v>23.12849162011173</v>
+        <v>17.41118205356535</v>
       </c>
       <c r="BW3">
-        <v>9.050279329608941</v>
+        <v>0.5419089583073458</v>
       </c>
       <c r="BX3">
-        <v>2.011173184357489</v>
-      </c>
-      <c r="CA3">
-        <v>7.039106145251395</v>
+        <v>36.76388139215539</v>
+      </c>
+      <c r="BY3">
+        <v>41.12779518245601</v>
+      </c>
+      <c r="BZ3">
+        <v>2.584468465058293</v>
       </c>
       <c r="CB3">
-        <v>83.463687150838</v>
+        <v>23.59292953911458</v>
+      </c>
+      <c r="CC3">
+        <v>27.09764255907305</v>
       </c>
       <c r="CD3">
-        <v>40.22346368715085</v>
+        <v>61.36578402456232</v>
       </c>
       <c r="CE3">
-        <v>1.005586592178759</v>
+        <v>20.2069354030882</v>
       </c>
       <c r="CF3">
-        <v>5.027932960893864</v>
+        <v>40.79326814010429</v>
+      </c>
+      <c r="CG3">
+        <v>22.64007755997216</v>
       </c>
       <c r="CH3">
-        <v>11.06145251396649</v>
+        <v>11.0185815501949</v>
+      </c>
+      <c r="CI3">
+        <v>8.292347460282926</v>
       </c>
       <c r="CK3">
-        <v>2.011173184357546</v>
+        <v>18.41636129947592</v>
+      </c>
+      <c r="CL3">
+        <v>31.91979036864608</v>
       </c>
       <c r="CM3">
-        <v>3.016759776536404</v>
+        <v>19.62268892130038</v>
       </c>
       <c r="CN3">
-        <v>28.1564245810056</v>
+        <v>29.25664627583471</v>
+      </c>
+      <c r="CO3">
+        <v>2.085164734503408</v>
       </c>
       <c r="CP3">
-        <v>7.039106145251395</v>
+        <v>10.0546704799888</v>
+      </c>
+      <c r="CQ3">
+        <v>31.44410714269351</v>
+      </c>
+      <c r="CR3">
+        <v>33.92251387178327</v>
       </c>
       <c r="CS3">
-        <v>9.050279329608941</v>
+        <v>29.33210204402747</v>
+      </c>
+      <c r="CT3">
+        <v>21.1968357861344</v>
+      </c>
+      <c r="CU3">
+        <v>36.89622109548516</v>
+      </c>
+      <c r="CV3">
+        <v>6.617937399538803</v>
+      </c>
+      <c r="CW3">
+        <v>0.7399901565507037</v>
       </c>
       <c r="CX3">
-        <v>11.06145251396654</v>
+        <v>45.70235131605902</v>
+      </c>
+      <c r="CY3">
+        <v>3.046087762770739</v>
+      </c>
+      <c r="CZ3">
+        <v>50.16876692933042</v>
       </c>
       <c r="DA3">
-        <v>4.022346368714977</v>
+        <v>13.23879538511291</v>
       </c>
       <c r="DB3">
-        <v>2.011173184357489</v>
+        <v>3.237613290666758</v>
+      </c>
+      <c r="DC3">
+        <v>2.455591083042805</v>
       </c>
       <c r="DD3">
-        <v>16.08938547486034</v>
+        <v>39.26073392867499</v>
       </c>
       <c r="DE3">
-        <v>22.12290502793297</v>
+        <v>30.77803671801712</v>
+      </c>
+      <c r="DF3">
+        <v>4.853256406872461</v>
       </c>
       <c r="DG3">
-        <v>50.27932960893855</v>
+        <v>3.25854919405856</v>
+      </c>
+      <c r="DH3">
+        <v>13.87593494504523</v>
       </c>
       <c r="DI3">
-        <v>3.016759776536318</v>
+        <v>40.22520718885875</v>
       </c>
       <c r="DJ3">
-        <v>8.044692737430168</v>
+        <v>77.36748636442633</v>
       </c>
       <c r="DK3">
-        <v>29.16201117318437</v>
+        <v>3.776274352787908</v>
       </c>
       <c r="DL3">
-        <v>27.15083798882677</v>
+        <v>6.240528764527582</v>
+      </c>
+      <c r="DM3">
+        <v>86.35310601691816</v>
+      </c>
+      <c r="DN3">
+        <v>21.63158832931244</v>
       </c>
       <c r="DO3">
-        <v>55.30726256983237</v>
+        <v>30.21274434370687</v>
+      </c>
+      <c r="DP3">
+        <v>20.92416848096198</v>
+      </c>
+      <c r="DQ3">
+        <v>28.61590426785791</v>
+      </c>
+      <c r="DR3">
+        <v>16.7932979604775</v>
       </c>
       <c r="DS3">
-        <v>3.016759776536304</v>
+        <v>0.7127574452345584</v>
+      </c>
+      <c r="DT3">
+        <v>24.8034848419959</v>
       </c>
       <c r="DU3">
-        <v>9.050279329608941</v>
+        <v>9.116495448116041</v>
       </c>
       <c r="DV3">
-        <v>11.06145251396649</v>
+        <v>5.071216736743111</v>
       </c>
       <c r="DW3">
-        <v>26.14525139664804</v>
+        <v>79.92159537594065</v>
       </c>
       <c r="DX3">
-        <v>1.005586592178773</v>
+        <v>6.004203107172245</v>
+      </c>
+      <c r="DY3">
+        <v>11.21553755084399</v>
+      </c>
+      <c r="DZ3">
+        <v>14.15031411597764</v>
+      </c>
+      <c r="EB3">
+        <v>13.90165856339769</v>
+      </c>
+      <c r="EC3">
+        <v>2.719714303864407</v>
+      </c>
+      <c r="ED3">
+        <v>47.42125178736477</v>
+      </c>
+      <c r="EE3">
+        <v>5.684645701624817</v>
+      </c>
+      <c r="EF3">
+        <v>1.814725778238767</v>
+      </c>
+      <c r="EH3">
+        <v>2.788388754710695</v>
+      </c>
+      <c r="EI3">
+        <v>5.957302582047291</v>
+      </c>
+      <c r="EJ3">
+        <v>7.8328475683726</v>
+      </c>
+      <c r="EK3">
+        <v>4.337011832222501</v>
+      </c>
+      <c r="EL3">
+        <v>38.84533972060473</v>
       </c>
       <c r="EM3">
-        <v>1.005586592178787</v>
+        <v>1.563938522645614</v>
       </c>
       <c r="EN3">
-        <v>6.033519553072637</v>
+        <v>4.750454750451894</v>
       </c>
       <c r="EO3">
-        <v>3.016759776536333</v>
+        <v>14.96728479452219</v>
       </c>
       <c r="EP3">
-        <v>66.36871508379889</v>
+        <v>7.233568530905586</v>
       </c>
       <c r="EQ3">
-        <v>5.027932960893864</v>
+        <v>39.94478316245766</v>
+      </c>
+      <c r="ER3">
+        <v>1.37002160511193</v>
       </c>
       <c r="ET3">
-        <v>4.022346368715091</v>
+        <v>3.776985305569582</v>
+      </c>
+      <c r="EU3">
+        <v>3.8586588958878</v>
+      </c>
+      <c r="EV3">
+        <v>2.399914672657005</v>
+      </c>
+      <c r="EW3">
+        <v>11.872474716977</v>
       </c>
       <c r="EX3">
-        <v>12.06703910614524</v>
+        <v>11.9036744462269</v>
       </c>
       <c r="EY3">
-        <v>5.02793296089385</v>
+        <v>1.391691567322297</v>
+      </c>
+      <c r="EZ3">
+        <v>5.017429608934009</v>
+      </c>
+      <c r="FA3">
+        <v>11.7271228422223</v>
       </c>
       <c r="FB3">
-        <v>8.044692737430211</v>
+        <v>25.43992340279729</v>
+      </c>
+      <c r="FC3">
+        <v>0.698595244020197</v>
+      </c>
+      <c r="FD3">
+        <v>8.66127865839168</v>
       </c>
       <c r="FE3">
-        <v>0</v>
+        <v>7.263031340708991</v>
       </c>
       <c r="FF3">
-        <v>10.05586592178769</v>
+        <v>4.03026700306269</v>
       </c>
       <c r="FG3">
-        <v>89.49720670391059</v>
+        <v>16.84890332631969</v>
+      </c>
+      <c r="FI3">
+        <v>4.685785999987786</v>
+      </c>
+      <c r="FJ3">
+        <v>2.0987749966134</v>
       </c>
       <c r="FK3">
-        <v>36.20111731843576</v>
+        <v>14.84233842889941</v>
       </c>
       <c r="FL3">
-        <v>7.039106145251395</v>
+        <v>41.80265056314195</v>
       </c>
       <c r="FM3">
-        <v>30.16759776536318</v>
+        <v>6.851380776292757</v>
       </c>
       <c r="FN3">
-        <v>2.011173184357503</v>
+        <v>0.2227250537714127</v>
       </c>
       <c r="FO3">
-        <v>2.011173184357602</v>
+        <v>32.89997768957822</v>
+      </c>
+      <c r="FP3">
+        <v>3.187912729621601</v>
       </c>
       <c r="FQ3">
-        <v>40.22346368715085</v>
+        <v>4.384435521807404</v>
       </c>
       <c r="FR3">
-        <v>2.011173184357489</v>
+        <v>4.520300229291962</v>
+      </c>
+      <c r="FS3">
+        <v>48.30456890756342</v>
+      </c>
+      <c r="FT3">
+        <v>1.114573511872294</v>
+      </c>
+      <c r="FU3">
+        <v>5.394140643897401</v>
+      </c>
+      <c r="FV3">
+        <v>31.08667995890867</v>
+      </c>
+      <c r="FW3">
+        <v>8.338225087950889</v>
+      </c>
+      <c r="FX3">
+        <v>5.370553677940478</v>
+      </c>
+      <c r="FY3">
+        <v>9.658851101809887</v>
+      </c>
+      <c r="FZ3">
+        <v>4.391873345067992</v>
+      </c>
+      <c r="GA3">
+        <v>22.41446485994223</v>
+      </c>
+      <c r="GB3">
+        <v>61.89834763635344</v>
       </c>
       <c r="GC3">
-        <v>8.044692737430182</v>
+        <v>27.47714981663445</v>
+      </c>
+      <c r="GD3">
+        <v>35.39878114657266</v>
+      </c>
+      <c r="GE3">
+        <v>11.65776840420909</v>
       </c>
       <c r="GG3">
-        <v>5.027932960893907</v>
+        <v>20.11100690388082</v>
+      </c>
+      <c r="GH3">
+        <v>17.08035438417818</v>
+      </c>
+      <c r="GI3">
+        <v>23.53008615501864</v>
       </c>
       <c r="GJ3">
-        <v>23.12849162011173</v>
+        <v>5.159263121269731</v>
+      </c>
+      <c r="GK3">
+        <v>5.250649176092566</v>
+      </c>
+      <c r="GL3">
+        <v>50.10466621480406</v>
+      </c>
+      <c r="GM3">
+        <v>26.1786607336435</v>
+      </c>
+      <c r="GN3">
+        <v>46.92929725333948</v>
+      </c>
+      <c r="GO3">
+        <v>2.96242965244798</v>
+      </c>
+      <c r="GP3">
+        <v>22.77573421576207</v>
+      </c>
+      <c r="GQ3">
+        <v>22.41758299093401</v>
+      </c>
+      <c r="GR3">
+        <v>15.78006161440921</v>
       </c>
     </row>
     <row r="4" spans="1:201">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>14.9437293393021</v>
+      </c>
       <c r="C4">
-        <v>41.22905027932961</v>
+        <v>33.3551096156247</v>
       </c>
       <c r="D4">
-        <v>2.011173184357546</v>
+        <v>37.65460043949319</v>
       </c>
       <c r="E4">
-        <v>9.050279329608941</v>
-      </c>
-      <c r="F4">
-        <v>22.12290502793296</v>
+        <v>12.35401538407829</v>
       </c>
       <c r="H4">
-        <v>37.20670391061451</v>
+        <v>42.62551135685698</v>
       </c>
       <c r="I4">
-        <v>14.07821229050279</v>
+        <v>3.459352755285508</v>
+      </c>
+      <c r="J4">
+        <v>29.28833822265538</v>
+      </c>
+      <c r="K4">
+        <v>40.47891385439156</v>
       </c>
       <c r="L4">
-        <v>17.09497206703911</v>
+        <v>74.10025639809585</v>
+      </c>
+      <c r="M4">
+        <v>39.39830152854613</v>
       </c>
       <c r="N4">
-        <v>11.06145251396649</v>
+        <v>6.303174071260202</v>
+      </c>
+      <c r="O4">
+        <v>5.2149961806671</v>
+      </c>
+      <c r="P4">
+        <v>66.66971605366689</v>
       </c>
       <c r="Q4">
-        <v>58.32402234636871</v>
-      </c>
-      <c r="R4">
-        <v>25.13966480446928</v>
-      </c>
-      <c r="S4">
-        <v>24.1340782122905</v>
+        <v>1.22919169760857</v>
       </c>
       <c r="T4">
-        <v>78.43575418994413</v>
+        <v>9.580964977010893</v>
       </c>
       <c r="U4">
-        <v>85.4748603351955</v>
+        <v>11.05971858454089</v>
       </c>
       <c r="V4">
-        <v>83.46368715083798</v>
+        <v>20.72961840014069</v>
       </c>
       <c r="W4">
-        <v>33.18435754189939</v>
-      </c>
-      <c r="X4">
-        <v>86.48044692737429</v>
-      </c>
-      <c r="Y4">
-        <v>35.19553072625703</v>
+        <v>4.078814354324592</v>
+      </c>
+      <c r="Z4">
+        <v>32.50488504996535</v>
+      </c>
+      <c r="AA4">
+        <v>24.28331629960222</v>
       </c>
       <c r="AC4">
-        <v>40.2234636871509</v>
-      </c>
-      <c r="AE4">
-        <v>11.06145251396651</v>
+        <v>9.787623821335103</v>
+      </c>
+      <c r="AD4">
+        <v>7.137725166710595</v>
       </c>
       <c r="AF4">
-        <v>37.20670391061454</v>
-      </c>
-      <c r="AH4">
-        <v>10.05586592178778</v>
+        <v>4.039839563157301</v>
+      </c>
+      <c r="AG4">
+        <v>54.07287909710848</v>
       </c>
       <c r="AI4">
-        <v>24.13407821229049</v>
+        <v>48.61394363080159</v>
       </c>
       <c r="AJ4">
-        <v>1.005586592178815</v>
+        <v>35.53747834255339</v>
+      </c>
+      <c r="AK4">
+        <v>15.10407713100457</v>
       </c>
       <c r="AL4">
-        <v>47.26256983240222</v>
+        <v>7.107043571735318</v>
       </c>
       <c r="AM4">
-        <v>24.13407821229049</v>
+        <v>34.08756701697178</v>
+      </c>
+      <c r="AN4">
+        <v>17.9274231400007</v>
       </c>
       <c r="AO4">
-        <v>48.26815642458101</v>
+        <v>7.5155566905119</v>
       </c>
       <c r="AP4">
-        <v>52.2905027932961</v>
+        <v>20.6228313765328</v>
       </c>
       <c r="AQ4">
-        <v>5.027932960893878</v>
+        <v>45.07101882860606</v>
       </c>
       <c r="AR4">
-        <v>29.16201117318428</v>
-      </c>
-      <c r="AS4">
-        <v>9.050279329608884</v>
+        <v>30.38767490389542</v>
       </c>
       <c r="AT4">
-        <v>5.02793296089385</v>
+        <v>3.407865996346402</v>
+      </c>
+      <c r="AU4">
+        <v>70.79772728718615</v>
       </c>
       <c r="AV4">
-        <v>70.39106145251397</v>
+        <v>68.60288424377015</v>
       </c>
       <c r="AW4">
-        <v>4.022346368715105</v>
+        <v>1.879420166046401</v>
       </c>
       <c r="AX4">
-        <v>35.19553072625693</v>
+        <v>70.32150113417774</v>
+      </c>
+      <c r="AY4">
+        <v>21.39219206998831</v>
       </c>
       <c r="AZ4">
-        <v>32.1787709497207</v>
+        <v>13.09193128412278</v>
       </c>
       <c r="BA4">
-        <v>55.30726256983246</v>
+        <v>64.86869514139593</v>
       </c>
       <c r="BB4">
-        <v>8.044692737430211</v>
+        <v>45.5128927422647</v>
       </c>
       <c r="BC4">
-        <v>68.37988826815644</v>
+        <v>24.53051567520191</v>
       </c>
       <c r="BD4">
-        <v>88.49162011173183</v>
+        <v>44.05352032728285</v>
       </c>
       <c r="BE4">
-        <v>4.022346368715105</v>
+        <v>8.174020877573</v>
       </c>
       <c r="BF4">
-        <v>10.0558659217877</v>
-      </c>
-      <c r="BG4">
-        <v>36.20111731843576</v>
+        <v>34.46376899380358</v>
       </c>
       <c r="BH4">
-        <v>17.09497206703909</v>
+        <v>8.375081058075082</v>
       </c>
       <c r="BI4">
-        <v>21.11731843575419</v>
+        <v>15.15714835499679</v>
       </c>
       <c r="BJ4">
-        <v>1.005586592178773</v>
+        <v>12.91806642903862</v>
+      </c>
+      <c r="BK4">
+        <v>24.36367492070811</v>
       </c>
       <c r="BL4">
-        <v>10.0558659217877</v>
+        <v>43.69749720693557</v>
       </c>
       <c r="BM4">
-        <v>3.016759776536333</v>
+        <v>22.51503632805492</v>
       </c>
       <c r="BN4">
-        <v>53.29608938547488</v>
+        <v>9.650272869557469</v>
       </c>
       <c r="BO4">
-        <v>7.039106145251409</v>
+        <v>12.60013283258169</v>
+      </c>
+      <c r="BP4">
+        <v>1.797209318842903</v>
+      </c>
+      <c r="BQ4">
+        <v>35.69462380076949</v>
       </c>
       <c r="BR4">
-        <v>30.16759776536313</v>
+        <v>9.130831302271005</v>
       </c>
       <c r="BS4">
-        <v>51.28491620111728</v>
+        <v>56.71099873844388</v>
+      </c>
+      <c r="BT4">
+        <v>13.94700029986718</v>
       </c>
       <c r="BU4">
-        <v>34.18994413407822</v>
+        <v>45.8129298728972</v>
+      </c>
+      <c r="BV4">
+        <v>19.81950681587475</v>
+      </c>
+      <c r="BW4">
+        <v>0.5130755314239508</v>
       </c>
       <c r="BX4">
-        <v>9.050279329608912</v>
+        <v>44.41748124945659</v>
       </c>
       <c r="BY4">
-        <v>59.32960893854749</v>
-      </c>
-      <c r="CA4">
-        <v>15.08379888268158</v>
+        <v>33.61952704226069</v>
+      </c>
+      <c r="BZ4">
+        <v>22.46660664720829</v>
+      </c>
+      <c r="CB4">
+        <v>22.20910007511199</v>
+      </c>
+      <c r="CC4">
+        <v>24.30208924506564</v>
+      </c>
+      <c r="CD4">
+        <v>59.15865445375722</v>
       </c>
       <c r="CE4">
-        <v>9.050279329608941</v>
+        <v>10.09352341007289</v>
       </c>
       <c r="CF4">
-        <v>0</v>
+        <v>30.8225636389887</v>
+      </c>
+      <c r="CG4">
+        <v>22.77432883129251</v>
       </c>
       <c r="CH4">
-        <v>27.15083798882682</v>
+        <v>0.807749676958494</v>
       </c>
       <c r="CI4">
-        <v>88.49162011173183</v>
+        <v>7.569120356455784</v>
       </c>
       <c r="CK4">
-        <v>1.005586592178787</v>
+        <v>16.72278361245802</v>
       </c>
       <c r="CL4">
-        <v>61.34078212290507</v>
+        <v>21.75647742283508</v>
       </c>
       <c r="CM4">
-        <v>13.07262569832399</v>
+        <v>15.39815919953969</v>
       </c>
       <c r="CN4">
-        <v>25.13966480446929</v>
+        <v>41.85999107978995</v>
+      </c>
+      <c r="CO4">
+        <v>10.3145183632232</v>
       </c>
       <c r="CP4">
-        <v>19.10614525139663</v>
+        <v>9.215919414360499</v>
+      </c>
+      <c r="CQ4">
+        <v>48.89149600886662</v>
+      </c>
+      <c r="CR4">
+        <v>23.37763409903172</v>
       </c>
       <c r="CS4">
-        <v>0</v>
+        <v>22.1898090267062</v>
+      </c>
+      <c r="CT4">
+        <v>12.4646741741084</v>
       </c>
       <c r="CU4">
-        <v>1.005586592178702</v>
+        <v>38.4173414486563</v>
+      </c>
+      <c r="CV4">
+        <v>0.8051887550170989</v>
+      </c>
+      <c r="CW4">
+        <v>27.01342120669527</v>
       </c>
       <c r="CX4">
-        <v>4.022346368715091</v>
+        <v>46.34334402099709</v>
+      </c>
+      <c r="CY4">
+        <v>3.785207077499464</v>
+      </c>
+      <c r="CZ4">
+        <v>43.49137523282145</v>
       </c>
       <c r="DA4">
-        <v>70.3910614525139</v>
+        <v>22.12573540556681</v>
       </c>
       <c r="DB4">
-        <v>6.033519553072608</v>
+        <v>12.23057374619496</v>
       </c>
       <c r="DD4">
-        <v>12.06703910614524</v>
+        <v>26.15380308860318</v>
       </c>
       <c r="DE4">
-        <v>17.09497206703911</v>
+        <v>18.10167159901292</v>
+      </c>
+      <c r="DF4">
+        <v>2.274217623790207</v>
       </c>
       <c r="DG4">
-        <v>66.36871508379886</v>
+        <v>13.1922004947655</v>
+      </c>
+      <c r="DH4">
+        <v>14.57580321343121</v>
       </c>
       <c r="DI4">
-        <v>5.027932960893793</v>
+        <v>40.87175475230518</v>
       </c>
       <c r="DJ4">
-        <v>3.016759776536304</v>
+        <v>59.48991917061522</v>
       </c>
       <c r="DK4">
-        <v>29.16201117318437</v>
+        <v>4.830834532789623</v>
       </c>
       <c r="DL4">
-        <v>38.21229050279325</v>
+        <v>0.03433957693280831</v>
+      </c>
+      <c r="DM4">
+        <v>80.14106483254105</v>
+      </c>
+      <c r="DN4">
+        <v>22.35690776775276</v>
       </c>
       <c r="DO4">
-        <v>54.30167597765359</v>
+        <v>10.21196252605849</v>
+      </c>
+      <c r="DP4">
+        <v>24.08502608818131</v>
+      </c>
+      <c r="DQ4">
+        <v>22.47057714871244</v>
+      </c>
+      <c r="DR4">
+        <v>9.05257031787491</v>
       </c>
       <c r="DS4">
-        <v>1.005586592178759</v>
+        <v>7.834251012910741</v>
+      </c>
+      <c r="DT4">
+        <v>17.29962536393373</v>
       </c>
       <c r="DU4">
-        <v>3.016759776536318</v>
+        <v>13.46015664538402</v>
       </c>
       <c r="DV4">
-        <v>5.02793296089385</v>
+        <v>1.99021599955671</v>
+      </c>
+      <c r="DW4">
+        <v>81.56400666095703</v>
       </c>
       <c r="DX4">
-        <v>1.005586592178759</v>
+        <v>17.37479544293079</v>
+      </c>
+      <c r="DY4">
+        <v>0.5531801463530996</v>
+      </c>
+      <c r="DZ4">
+        <v>13.8649661851764</v>
+      </c>
+      <c r="EB4">
+        <v>43.98486194571556</v>
+      </c>
+      <c r="EC4">
+        <v>7.339724290183483</v>
       </c>
       <c r="ED4">
-        <v>19.1061452513966</v>
+        <v>84.34821502875374</v>
+      </c>
+      <c r="EE4">
+        <v>38.75858581425297</v>
       </c>
       <c r="EF4">
-        <v>17.09497206703908</v>
-      </c>
-      <c r="EG4">
-        <v>20.1117318435754</v>
+        <v>21.07914696621339</v>
+      </c>
+      <c r="EH4">
+        <v>0.1705921971740167</v>
       </c>
       <c r="EI4">
-        <v>19.1061452513967</v>
+        <v>2.286136046096701</v>
+      </c>
+      <c r="EJ4">
+        <v>14.24195308478261</v>
+      </c>
+      <c r="EK4">
+        <v>6.034176993980296</v>
+      </c>
+      <c r="EL4">
+        <v>63.69755603057339</v>
       </c>
       <c r="EM4">
-        <v>4.022346368715077</v>
+        <v>1.498670180489171</v>
       </c>
       <c r="EN4">
-        <v>7.039106145251395</v>
-      </c>
-      <c r="EO4">
-        <v>1.005586592178787</v>
+        <v>28.53297058480818</v>
       </c>
       <c r="EP4">
-        <v>46.25698324022349</v>
+        <v>21.83335343750389</v>
       </c>
       <c r="EQ4">
-        <v>19.10614525139664</v>
-      </c>
-      <c r="ET4">
-        <v>1.005586592178759</v>
+        <v>50.94702545282917</v>
+      </c>
+      <c r="ER4">
+        <v>4.734028397089077</v>
+      </c>
+      <c r="EV4">
+        <v>7.608061191543499</v>
+      </c>
+      <c r="EW4">
+        <v>9.560131174855798</v>
       </c>
       <c r="EX4">
-        <v>16.08938547486034</v>
+        <v>20.03821773634361</v>
       </c>
       <c r="EY4">
-        <v>3.016759776536318</v>
+        <v>3.4840684767467</v>
+      </c>
+      <c r="EZ4">
+        <v>7.493579357889359</v>
+      </c>
+      <c r="FA4">
+        <v>8.372063551752206</v>
+      </c>
+      <c r="FB4">
+        <v>26.50732574183749</v>
+      </c>
+      <c r="FC4">
+        <v>8.130965265835599</v>
+      </c>
+      <c r="FD4">
+        <v>12.82860068692828</v>
       </c>
       <c r="FE4">
-        <v>8.044692737430097</v>
+        <v>1.858791415598873</v>
       </c>
       <c r="FF4">
-        <v>11.06145251396644</v>
+        <v>6.98141903341552</v>
       </c>
       <c r="FG4">
-        <v>86.48044692737426</v>
+        <v>16.16589617355478</v>
+      </c>
+      <c r="FH4">
+        <v>15.9107327601161</v>
+      </c>
+      <c r="FI4">
+        <v>10.00009228661128</v>
+      </c>
+      <c r="FJ4">
+        <v>3.308150402185845</v>
+      </c>
+      <c r="FK4">
+        <v>19.44397042135961</v>
       </c>
       <c r="FL4">
-        <v>11.0614525139664</v>
-      </c>
-      <c r="FO4">
-        <v>16.08938547486029</v>
+        <v>37.69968558667605</v>
+      </c>
+      <c r="FM4">
+        <v>4.881762022867306</v>
+      </c>
+      <c r="FN4">
+        <v>5.810042496743904</v>
+      </c>
+      <c r="FP4">
+        <v>1.484959883744125</v>
       </c>
       <c r="FQ4">
-        <v>43.24022346368715</v>
+        <v>3.623989137203537</v>
       </c>
       <c r="FR4">
-        <v>9.050279329608998</v>
+        <v>0.9213038713674564</v>
+      </c>
+      <c r="FS4">
+        <v>38.59789521294522</v>
+      </c>
+      <c r="FT4">
+        <v>6.505490442224215</v>
+      </c>
+      <c r="FU4">
+        <v>17.1852530424904</v>
+      </c>
+      <c r="FV4">
+        <v>24.17901976280044</v>
+      </c>
+      <c r="FW4">
+        <v>11.04051732968129</v>
+      </c>
+      <c r="FX4">
+        <v>5.271830549405436</v>
+      </c>
+      <c r="FY4">
+        <v>4.800103633916578</v>
+      </c>
+      <c r="FZ4">
+        <v>11.01477564855784</v>
+      </c>
+      <c r="GA4">
+        <v>17.70651002303691</v>
       </c>
       <c r="GB4">
-        <v>14.07821229050282</v>
+        <v>57.19315677923777</v>
+      </c>
+      <c r="GC4">
+        <v>31.35705782332394</v>
       </c>
       <c r="GD4">
-        <v>20.1117318435754</v>
+        <v>34.50210893308926</v>
+      </c>
+      <c r="GE4">
+        <v>8.627345637928386</v>
       </c>
       <c r="GG4">
-        <v>12.0670391061453</v>
+        <v>4.21255188682801</v>
+      </c>
+      <c r="GH4">
+        <v>0.3303141150595792</v>
+      </c>
+      <c r="GI4">
+        <v>23.77784166796928</v>
       </c>
       <c r="GJ4">
-        <v>20.11173184357541</v>
+        <v>27.94526369350989</v>
+      </c>
+      <c r="GK4">
+        <v>21.62135212135611</v>
+      </c>
+      <c r="GL4">
+        <v>57.78509397709886</v>
+      </c>
+      <c r="GM4">
+        <v>24.81460118641441</v>
+      </c>
+      <c r="GN4">
+        <v>18.64562631931564</v>
+      </c>
+      <c r="GO4">
+        <v>8.062939184253963</v>
+      </c>
+      <c r="GP4">
+        <v>5.027714716251069</v>
+      </c>
+      <c r="GQ4">
+        <v>45.30575350705467</v>
+      </c>
+      <c r="GR4">
+        <v>2.182373392914201</v>
+      </c>
+      <c r="GS4">
+        <v>11.2716232346576</v>
       </c>
     </row>
     <row r="5" spans="1:201">
@@ -2221,307 +2665,538 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.26256983240229</v>
+        <v>24.04337698127061</v>
       </c>
       <c r="C5">
-        <v>19.10614525139661</v>
+        <v>36.29575523186411</v>
       </c>
       <c r="D5">
-        <v>5.02793296089385</v>
-      </c>
-      <c r="F5">
-        <v>31.1731843575419</v>
-      </c>
-      <c r="G5">
-        <v>49.27374301675977</v>
+        <v>29.51934397261449</v>
+      </c>
+      <c r="E5">
+        <v>16.6373333498948</v>
       </c>
       <c r="H5">
-        <v>21.1173184357542</v>
+        <v>46.40825934494387</v>
       </c>
       <c r="I5">
-        <v>3.016759776536304</v>
+        <v>10.4930275783467</v>
+      </c>
+      <c r="J5">
+        <v>9.102612690734148</v>
       </c>
       <c r="K5">
-        <v>34.18994413407822</v>
+        <v>46.44738089706336</v>
+      </c>
+      <c r="L5">
+        <v>82.26218632555636</v>
+      </c>
+      <c r="M5">
+        <v>41.67559152517273</v>
       </c>
       <c r="N5">
-        <v>14.07821229050279</v>
+        <v>7.577819413089998</v>
       </c>
       <c r="O5">
-        <v>35.195530726257</v>
-      </c>
-      <c r="S5">
-        <v>34.18994413407829</v>
-      </c>
-      <c r="T5">
-        <v>81.45251396648047</v>
+        <v>14.9961767097129</v>
+      </c>
+      <c r="P5">
+        <v>73.69307690800312</v>
+      </c>
+      <c r="Q5">
+        <v>0.5262627698136697</v>
+      </c>
+      <c r="R5">
+        <v>15.8532573522203</v>
+      </c>
+      <c r="U5">
+        <v>27.71519605696346</v>
       </c>
       <c r="V5">
-        <v>34.18994413407822</v>
+        <v>24.5666934853065</v>
       </c>
       <c r="W5">
-        <v>36.20111731843569</v>
-      </c>
-      <c r="X5">
-        <v>85.4748603351955</v>
-      </c>
-      <c r="Y5">
-        <v>61.34078212290503</v>
+        <v>7.211267573497352</v>
       </c>
       <c r="Z5">
-        <v>39.217877094972</v>
-      </c>
-      <c r="AB5">
-        <v>80.44692737430165</v>
+        <v>40.98290022419175</v>
+      </c>
+      <c r="AA5">
+        <v>32.19811286928929</v>
       </c>
       <c r="AC5">
-        <v>40.2234636871509</v>
-      </c>
-      <c r="AD5">
-        <v>53.2960893854749</v>
-      </c>
-      <c r="AE5">
-        <v>4.02234636871512</v>
-      </c>
-      <c r="AH5">
-        <v>22.122905027933</v>
+        <v>10.03685462381728</v>
+      </c>
+      <c r="AF5">
+        <v>6.704890803188192</v>
+      </c>
+      <c r="AG5">
+        <v>24.52851134174318</v>
       </c>
       <c r="AI5">
-        <v>12.06703910614524</v>
+        <v>28.93382124564027</v>
       </c>
       <c r="AJ5">
-        <v>8.044692737430211</v>
+        <v>26.02708127404824</v>
+      </c>
+      <c r="AK5">
+        <v>3.795967623422669</v>
       </c>
       <c r="AL5">
-        <v>40.22346368715085</v>
-      </c>
-      <c r="AO5">
-        <v>17.09497206703911</v>
+        <v>12.38382635384741</v>
+      </c>
+      <c r="AM5">
+        <v>16.88576323905536</v>
+      </c>
+      <c r="AN5">
+        <v>12.70115316059439</v>
       </c>
       <c r="AP5">
-        <v>49.27374301675979</v>
+        <v>29.00836605939189</v>
       </c>
       <c r="AQ5">
-        <v>5.027932960893821</v>
+        <v>50.03395492806335</v>
       </c>
       <c r="AR5">
-        <v>5.027932960893907</v>
+        <v>28.55689213921031</v>
       </c>
       <c r="AT5">
-        <v>14.07821229050279</v>
+        <v>3.5530160933221</v>
+      </c>
+      <c r="AU5">
+        <v>80.37615916164565</v>
       </c>
       <c r="AV5">
-        <v>79.44134078212288</v>
+        <v>39.79367360495051</v>
       </c>
       <c r="AW5">
-        <v>2.011173184357602</v>
+        <v>6.031338058509505</v>
       </c>
       <c r="AX5">
-        <v>19.10614525139664</v>
+        <v>62.58806264175863</v>
       </c>
       <c r="AY5">
-        <v>5.027932960893821</v>
+        <v>24.95696410836881</v>
       </c>
       <c r="AZ5">
-        <v>6.033519553072608</v>
+        <v>31.42538119047708</v>
       </c>
       <c r="BA5">
-        <v>33.1843575418994</v>
+        <v>67.80453209089316</v>
       </c>
       <c r="BB5">
-        <v>3.016759776536418</v>
+        <v>50.5159029640946</v>
       </c>
       <c r="BC5">
-        <v>75.41899441340783</v>
+        <v>14.4596611372511</v>
       </c>
       <c r="BD5">
-        <v>61.34078212290501</v>
+        <v>34.25148577840163</v>
       </c>
       <c r="BE5">
-        <v>2.011173184357531</v>
+        <v>0.03402700245149504</v>
       </c>
       <c r="BF5">
-        <v>5.027932960893793</v>
+        <v>45.16747905751258</v>
+      </c>
+      <c r="BG5">
+        <v>48.98686576877873</v>
       </c>
       <c r="BH5">
-        <v>24.13407821229049</v>
+        <v>21.47679117995585</v>
       </c>
       <c r="BI5">
-        <v>72.40223463687147</v>
+        <v>6.636263615735189</v>
       </c>
       <c r="BJ5">
-        <v>19.1061452513967</v>
+        <v>20.83461052088188</v>
+      </c>
+      <c r="BK5">
+        <v>35.7911150586297</v>
       </c>
       <c r="BL5">
-        <v>16.08938547486034</v>
+        <v>30.83432929115202</v>
+      </c>
+      <c r="BM5">
+        <v>8.988232999205621</v>
+      </c>
+      <c r="BN5">
+        <v>14.05032831879682</v>
+      </c>
+      <c r="BO5">
+        <v>28.37120350182209</v>
       </c>
       <c r="BP5">
-        <v>21.1173184357541</v>
+        <v>21.6221420309477</v>
+      </c>
+      <c r="BQ5">
+        <v>28.6086736254876</v>
       </c>
       <c r="BR5">
-        <v>54.30167597765362</v>
+        <v>6.811391966009992</v>
       </c>
       <c r="BS5">
-        <v>50.27932960893858</v>
+        <v>58.94109631022281</v>
+      </c>
+      <c r="BT5">
+        <v>4.936979871531179</v>
       </c>
       <c r="BU5">
-        <v>32.17877094972062</v>
+        <v>34.14734968427801</v>
       </c>
       <c r="BV5">
-        <v>23.12849162011173</v>
+        <v>28.57774264527205</v>
+      </c>
+      <c r="BW5">
+        <v>7.092634509044871</v>
       </c>
       <c r="BX5">
-        <v>6.033519553072608</v>
+        <v>52.28711406739955</v>
       </c>
       <c r="BY5">
-        <v>53.29608938547486</v>
-      </c>
-      <c r="CA5">
-        <v>11.06145251396649</v>
+        <v>48.57737055812959</v>
+      </c>
+      <c r="BZ5">
+        <v>4.396799256422298</v>
+      </c>
+      <c r="CB5">
+        <v>31.37154193052451</v>
       </c>
       <c r="CC5">
-        <v>6.033519553072622</v>
+        <v>55.08556829676475</v>
       </c>
       <c r="CD5">
-        <v>43.24022346368713</v>
+        <v>85.48495338713353</v>
       </c>
       <c r="CE5">
-        <v>14.07821229050279</v>
+        <v>24.0395835554246</v>
+      </c>
+      <c r="CF5">
+        <v>51.71932515932819</v>
+      </c>
+      <c r="CG5">
+        <v>28.83964043328348</v>
       </c>
       <c r="CH5">
-        <v>4.022346368715077</v>
+        <v>15.3720122368598</v>
+      </c>
+      <c r="CI5">
+        <v>39.25346316731381</v>
       </c>
       <c r="CK5">
-        <v>18.10055865921788</v>
+        <v>17.27656840236853</v>
+      </c>
+      <c r="CL5">
+        <v>43.55943579458517</v>
       </c>
       <c r="CM5">
-        <v>7.039106145251395</v>
+        <v>35.9356704746885</v>
       </c>
       <c r="CN5">
-        <v>37.20670391061451</v>
+        <v>18.69595543139391</v>
+      </c>
+      <c r="CO5">
+        <v>1.063197163924187</v>
       </c>
       <c r="CP5">
-        <v>23.12849162011169</v>
+        <v>1.08257585199371</v>
+      </c>
+      <c r="CQ5">
+        <v>43.54585682798222</v>
+      </c>
+      <c r="CR5">
+        <v>36.80740673122726</v>
       </c>
       <c r="CS5">
-        <v>70.39106145251399</v>
+        <v>47.56322282556097</v>
+      </c>
+      <c r="CT5">
+        <v>24.0465523199355</v>
       </c>
       <c r="CU5">
-        <v>10.05586592178781</v>
+        <v>40.46775643032539</v>
+      </c>
+      <c r="CV5">
+        <v>8.997388304791897</v>
       </c>
       <c r="CW5">
-        <v>59.32960893854747</v>
+        <v>6.41743836013687</v>
       </c>
       <c r="CX5">
-        <v>1.005586592178773</v>
+        <v>10.81075399267434</v>
+      </c>
+      <c r="CY5">
+        <v>8.629818763779909</v>
       </c>
       <c r="CZ5">
-        <v>2.011173184357489</v>
+        <v>52.50668239035554</v>
       </c>
       <c r="DA5">
-        <v>3.016759776536418</v>
+        <v>19.38779021254922</v>
       </c>
       <c r="DB5">
-        <v>18.10055865921791</v>
+        <v>16.40663549844608</v>
       </c>
       <c r="DD5">
-        <v>2.011173184357517</v>
+        <v>25.46407216775609</v>
       </c>
       <c r="DE5">
-        <v>29.16201117318434</v>
+        <v>33.39589097218843</v>
+      </c>
+      <c r="DF5">
+        <v>5.826899683833375</v>
       </c>
       <c r="DG5">
-        <v>58.32402234636865</v>
+        <v>42.78523515484354</v>
+      </c>
+      <c r="DH5">
+        <v>22.34110633384685</v>
       </c>
       <c r="DI5">
-        <v>16.08938547486031</v>
+        <v>6.9050833325973</v>
       </c>
       <c r="DJ5">
-        <v>5.027932960893864</v>
+        <v>55.37003845613802</v>
       </c>
       <c r="DK5">
-        <v>30.16759776536307</v>
+        <v>10.18108893799008</v>
       </c>
       <c r="DL5">
-        <v>37.20670391061448</v>
+        <v>3.662829344602585</v>
+      </c>
+      <c r="DM5">
+        <v>80.39502507482804</v>
+      </c>
+      <c r="DN5">
+        <v>27.7465198838125</v>
       </c>
       <c r="DO5">
-        <v>56.31284916201119</v>
+        <v>36.05749499790129</v>
+      </c>
+      <c r="DP5">
+        <v>15.11631779777585</v>
+      </c>
+      <c r="DQ5">
+        <v>20.57664295081122</v>
+      </c>
+      <c r="DR5">
+        <v>3.845433409721807</v>
       </c>
       <c r="DS5">
-        <v>4.022346368715091</v>
+        <v>5.132227770086416</v>
+      </c>
+      <c r="DT5">
+        <v>22.24634612236659</v>
       </c>
       <c r="DU5">
-        <v>3.016759776536304</v>
+        <v>5.112051085610375</v>
       </c>
       <c r="DV5">
-        <v>0</v>
+        <v>3.699820974008404</v>
+      </c>
+      <c r="DW5">
+        <v>77.59857410705095</v>
       </c>
       <c r="DX5">
-        <v>0</v>
+        <v>6.220192476322865</v>
+      </c>
+      <c r="DY5">
+        <v>3.081623487952697</v>
+      </c>
+      <c r="DZ5">
+        <v>28.79297823329165</v>
+      </c>
+      <c r="EB5">
+        <v>6.474258529302602</v>
+      </c>
+      <c r="EC5">
+        <v>11.92245092962989</v>
+      </c>
+      <c r="ED5">
+        <v>31.67236850410633</v>
+      </c>
+      <c r="EE5">
+        <v>7.021276239282798</v>
+      </c>
+      <c r="EF5">
+        <v>0.08558580362829105</v>
+      </c>
+      <c r="EH5">
+        <v>1.315886678680414</v>
+      </c>
+      <c r="EI5">
+        <v>2.30749402113311</v>
+      </c>
+      <c r="EJ5">
+        <v>12.10055199352701</v>
+      </c>
+      <c r="EK5">
+        <v>0.1443386405066036</v>
+      </c>
+      <c r="EL5">
+        <v>19.69207910690048</v>
       </c>
       <c r="EM5">
-        <v>1.005586592178787</v>
+        <v>0.08630092659075217</v>
       </c>
       <c r="EN5">
-        <v>1.005586592178787</v>
+        <v>8.188298160711057</v>
       </c>
       <c r="EO5">
-        <v>0</v>
+        <v>23.36319276322919</v>
       </c>
       <c r="EP5">
-        <v>63.35195530726259</v>
+        <v>13.35577659444625</v>
       </c>
       <c r="EQ5">
-        <v>2.011173184357546</v>
-      </c>
-      <c r="ET5">
-        <v>7.039106145251395</v>
+        <v>31.48426617224256</v>
+      </c>
+      <c r="ER5">
+        <v>0.7844517208312141</v>
+      </c>
+      <c r="EU5">
+        <v>0.382674691739993</v>
+      </c>
+      <c r="EV5">
+        <v>3.908390204817408</v>
+      </c>
+      <c r="EW5">
+        <v>3.914289028273799</v>
       </c>
       <c r="EX5">
-        <v>20.11173184357543</v>
+        <v>0.7173976016417924</v>
       </c>
       <c r="EY5">
-        <v>1.005586592178773</v>
+        <v>0.6741823871397088</v>
+      </c>
+      <c r="EZ5">
+        <v>4.639031260486149</v>
       </c>
       <c r="FA5">
-        <v>12.06703910614526</v>
+        <v>14.4461451009016</v>
+      </c>
+      <c r="FB5">
+        <v>12.9150466498099</v>
+      </c>
+      <c r="FC5">
+        <v>1.860033463350092</v>
+      </c>
+      <c r="FD5">
+        <v>32.5585515329324</v>
       </c>
       <c r="FE5">
-        <v>4.022346368715091</v>
+        <v>3.436934089371036</v>
+      </c>
+      <c r="FF5">
+        <v>2.278633251112197</v>
       </c>
       <c r="FG5">
-        <v>5.027932960893793</v>
+        <v>0.9361591123853259</v>
+      </c>
+      <c r="FI5">
+        <v>6.140080241518092</v>
+      </c>
+      <c r="FJ5">
+        <v>6.057559859513702</v>
+      </c>
+      <c r="FK5">
+        <v>4.973954081187117</v>
       </c>
       <c r="FL5">
-        <v>3.016759776536304</v>
-      </c>
-      <c r="FO5">
-        <v>9.050279329608898</v>
+        <v>50.26751962029175</v>
+      </c>
+      <c r="FM5">
+        <v>4.524615333187498</v>
+      </c>
+      <c r="FN5">
+        <v>1.743332740087013</v>
+      </c>
+      <c r="FP5">
+        <v>6.700849943769185</v>
       </c>
       <c r="FQ5">
-        <v>4.022346368715091</v>
+        <v>6.786114105038905</v>
       </c>
       <c r="FR5">
-        <v>2.011173184357489</v>
+        <v>3.362944692191363</v>
+      </c>
+      <c r="FS5">
+        <v>48.31536416130733</v>
+      </c>
+      <c r="FT5">
+        <v>0.1512068582612045</v>
+      </c>
+      <c r="FU5">
+        <v>12.16090734942159</v>
       </c>
       <c r="FV5">
-        <v>40.22346368715085</v>
+        <v>21.34582493006121</v>
+      </c>
+      <c r="FW5">
+        <v>6.424232480552291</v>
+      </c>
+      <c r="FX5">
+        <v>7.122712201286205</v>
       </c>
       <c r="FY5">
-        <v>6.033519553072608</v>
+        <v>10.1892664153859</v>
+      </c>
+      <c r="FZ5">
+        <v>15.73207282859534</v>
+      </c>
+      <c r="GA5">
+        <v>26.19268761520811</v>
+      </c>
+      <c r="GB5">
+        <v>63.81487028962175</v>
+      </c>
+      <c r="GC5">
+        <v>16.02713442199142</v>
       </c>
       <c r="GD5">
-        <v>0</v>
+        <v>39.31063985951965</v>
+      </c>
+      <c r="GE5">
+        <v>29.2304908681495</v>
       </c>
       <c r="GG5">
-        <v>7.039106145251381</v>
+        <v>17.41281327869559</v>
+      </c>
+      <c r="GH5">
+        <v>23.51697332185026</v>
+      </c>
+      <c r="GI5">
+        <v>23.66590013067332</v>
+      </c>
+      <c r="GJ5">
+        <v>16.64799599575201</v>
+      </c>
+      <c r="GK5">
+        <v>15.66840208519353</v>
       </c>
       <c r="GL5">
-        <v>7.039106145251395</v>
+        <v>71.61197883957647</v>
+      </c>
+      <c r="GM5">
+        <v>29.57988357287465</v>
+      </c>
+      <c r="GN5">
+        <v>54.79933759495198</v>
       </c>
       <c r="GO5">
-        <v>1.005586592178702</v>
+        <v>2.766444016668899</v>
+      </c>
+      <c r="GP5">
+        <v>17.22599136811411</v>
+      </c>
+      <c r="GQ5">
+        <v>20.40984328580862</v>
+      </c>
+      <c r="GR5">
+        <v>12.8740844207699</v>
+      </c>
+      <c r="GS5">
+        <v>17.98017214267652</v>
       </c>
     </row>
     <row r="6" spans="1:201">
@@ -2529,642 +3204,1128 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>45.25139664804469</v>
-      </c>
-      <c r="C6">
-        <v>35.195530726257</v>
+        <v>27.49894515856421</v>
       </c>
       <c r="D6">
-        <v>2.011173184357531</v>
+        <v>1.774905686823942</v>
+      </c>
+      <c r="E6">
+        <v>16.9554399013598</v>
       </c>
       <c r="F6">
-        <v>22.12290502793296</v>
-      </c>
-      <c r="G6">
-        <v>38.21229050279327</v>
+        <v>57.78237290077931</v>
       </c>
       <c r="H6">
-        <v>14.0782122905028</v>
+        <v>46.61511918508647</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.86921697339939</v>
       </c>
       <c r="J6">
-        <v>62.34636871508377</v>
+        <v>36.52788547889915</v>
+      </c>
+      <c r="K6">
+        <v>42.90768871280896</v>
+      </c>
+      <c r="L6">
+        <v>80.72228694901285</v>
       </c>
       <c r="M6">
-        <v>80.44692737430171</v>
+        <v>40.74281773746343</v>
       </c>
       <c r="N6">
-        <v>19.10614525139665</v>
+        <v>7.656470343205001</v>
+      </c>
+      <c r="O6">
+        <v>17.0428788622356</v>
+      </c>
+      <c r="P6">
+        <v>56.3339987677893</v>
       </c>
       <c r="Q6">
-        <v>54.30167597765362</v>
-      </c>
-      <c r="S6">
-        <v>40.2234636871509</v>
-      </c>
-      <c r="T6">
-        <v>79.44134078212284</v>
+        <v>21.0409133080464</v>
+      </c>
+      <c r="V6">
+        <v>18.6606752671975</v>
       </c>
       <c r="W6">
-        <v>38.21229050279329</v>
-      </c>
-      <c r="X6">
-        <v>88.49162011173181</v>
+        <v>11.30299688976972</v>
       </c>
       <c r="Y6">
-        <v>10.05586592178771</v>
+        <v>41.89959929550768</v>
+      </c>
+      <c r="Z6">
+        <v>24.44833407560392</v>
       </c>
       <c r="AA6">
-        <v>9.050279329608998</v>
-      </c>
-      <c r="AB6">
-        <v>73.40782122905026</v>
+        <v>38.90706395368173</v>
       </c>
       <c r="AC6">
-        <v>21.1173184357542</v>
+        <v>9.924700733744402</v>
       </c>
       <c r="AD6">
-        <v>23.1284916201117</v>
+        <v>4.633592339129805</v>
       </c>
       <c r="AE6">
-        <v>26.14525139664801</v>
+        <v>20.1932915213342</v>
+      </c>
+      <c r="AF6">
+        <v>0.7412276347625948</v>
       </c>
       <c r="AG6">
-        <v>5.027932960893907</v>
+        <v>38.92894760788937</v>
       </c>
       <c r="AH6">
-        <v>22.122905027933</v>
+        <v>8.096263232141794</v>
+      </c>
+      <c r="AI6">
+        <v>29.54776272316383</v>
       </c>
       <c r="AJ6">
-        <v>12.0670391061452</v>
+        <v>27.00833198688701</v>
       </c>
       <c r="AK6">
-        <v>16.08938547486042</v>
+        <v>1.226297182591779</v>
+      </c>
+      <c r="AL6">
+        <v>4.741391079899813</v>
       </c>
       <c r="AM6">
-        <v>18.10055865921791</v>
+        <v>19.7714558396346</v>
       </c>
       <c r="AN6">
-        <v>1.005586592178787</v>
+        <v>30.38047448192529</v>
       </c>
       <c r="AO6">
-        <v>35.195530726257</v>
+        <v>1.834846775954503</v>
       </c>
       <c r="AP6">
-        <v>54.3016759776537</v>
+        <v>23.26209701976721</v>
       </c>
       <c r="AQ6">
-        <v>4.022346368715091</v>
+        <v>35.85263165460854</v>
       </c>
       <c r="AR6">
-        <v>75.41899441340775</v>
+        <v>24.17270283000911</v>
+      </c>
+      <c r="AS6">
+        <v>29.6142927739126</v>
+      </c>
+      <c r="AT6">
+        <v>10.123324842263</v>
+      </c>
+      <c r="AU6">
+        <v>72.25013198779595</v>
       </c>
       <c r="AV6">
-        <v>66.36871508379888</v>
+        <v>35.60076938890527</v>
       </c>
       <c r="AW6">
-        <v>27.15083798882681</v>
+        <v>20.91568546714581</v>
       </c>
       <c r="AX6">
-        <v>18.10055865921787</v>
+        <v>58.67231474808285</v>
+      </c>
+      <c r="AY6">
+        <v>30.7559480169197</v>
+      </c>
+      <c r="AZ6">
+        <v>23.67297204705916</v>
       </c>
       <c r="BA6">
-        <v>14.07821229050279</v>
+        <v>40.83041483148708</v>
       </c>
       <c r="BB6">
-        <v>11.06145251396651</v>
+        <v>41.49265439245608</v>
+      </c>
+      <c r="BC6">
+        <v>30.49067428693611</v>
       </c>
       <c r="BD6">
-        <v>82.4581005586592</v>
+        <v>55.5174529997754</v>
       </c>
       <c r="BE6">
-        <v>7.039106145251395</v>
+        <v>8.836827991014601</v>
       </c>
       <c r="BF6">
-        <v>14.07821229050282</v>
+        <v>36.90290260907977</v>
       </c>
       <c r="BG6">
-        <v>37.20670391061446</v>
+        <v>32.33636796226305</v>
+      </c>
+      <c r="BH6">
+        <v>19.41745782561172</v>
       </c>
       <c r="BI6">
-        <v>13.07262569832402</v>
+        <v>14.9549583726423</v>
       </c>
       <c r="BJ6">
-        <v>1.005586592178773</v>
+        <v>42.88915221045681</v>
+      </c>
+      <c r="BK6">
+        <v>19.8779656437457</v>
       </c>
       <c r="BL6">
-        <v>4.022346368715077</v>
+        <v>33.83989259216457</v>
+      </c>
+      <c r="BM6">
+        <v>20.14970399051862</v>
+      </c>
+      <c r="BN6">
+        <v>4.189077593118071</v>
       </c>
       <c r="BO6">
-        <v>2.011173184357546</v>
+        <v>13.3398525017802</v>
+      </c>
+      <c r="BP6">
+        <v>9.818468007246096</v>
+      </c>
+      <c r="BQ6">
+        <v>41.65954784666951</v>
       </c>
       <c r="BR6">
-        <v>24.1340782122905</v>
+        <v>9.341608199023298</v>
       </c>
       <c r="BS6">
-        <v>61.34078212290498</v>
+        <v>82.81711873239504</v>
+      </c>
+      <c r="BT6">
+        <v>3.044766959793051</v>
       </c>
       <c r="BU6">
-        <v>39.21787709497201</v>
+        <v>12.1108293553616</v>
       </c>
       <c r="BV6">
-        <v>30.16759776536313</v>
+        <v>20.77516335868096</v>
+      </c>
+      <c r="BW6">
+        <v>0.2795706536242761</v>
       </c>
       <c r="BX6">
-        <v>4.022346368715091</v>
+        <v>56.94952024488916</v>
       </c>
       <c r="BY6">
-        <v>61.34078212290504</v>
+        <v>18.52262479880076</v>
+      </c>
+      <c r="BZ6">
+        <v>7.392561431179303</v>
       </c>
       <c r="CA6">
-        <v>22.12290502793296</v>
+        <v>0.04637302116447017</v>
+      </c>
+      <c r="CB6">
+        <v>30.21077594932079</v>
       </c>
       <c r="CC6">
-        <v>6.033519553072622</v>
+        <v>31.95525626437305</v>
       </c>
       <c r="CD6">
-        <v>55.30726256983243</v>
+        <v>87.03678170597047</v>
       </c>
       <c r="CE6">
-        <v>3.016759776536304</v>
+        <v>16.2809233871443</v>
       </c>
       <c r="CF6">
-        <v>24.13407821229053</v>
+        <v>25.77382033195481</v>
+      </c>
+      <c r="CG6">
+        <v>23.96718535593385</v>
       </c>
       <c r="CH6">
-        <v>6.033519553072637</v>
+        <v>8.478852337125602</v>
       </c>
       <c r="CI6">
-        <v>63.35195530726259</v>
+        <v>41.63095002501893</v>
       </c>
       <c r="CJ6">
-        <v>17.09497206703911</v>
+        <v>10.22817150822054</v>
       </c>
       <c r="CK6">
-        <v>3.016759776536318</v>
+        <v>15.23249571497502</v>
       </c>
       <c r="CL6">
-        <v>21.11731843575421</v>
+        <v>36.81593704607377</v>
       </c>
       <c r="CM6">
-        <v>22.12290502793299</v>
+        <v>30.24635469298682</v>
       </c>
       <c r="CN6">
-        <v>21.1173184357542</v>
+        <v>28.68132862232761</v>
+      </c>
+      <c r="CO6">
+        <v>5.992769735953004</v>
       </c>
       <c r="CP6">
-        <v>26.14525139664811</v>
+        <v>0.8970822210716989</v>
       </c>
       <c r="CQ6">
-        <v>48.26815642458098</v>
+        <v>44.35411569625643</v>
+      </c>
+      <c r="CR6">
+        <v>21.04121081976557</v>
       </c>
       <c r="CS6">
-        <v>36.20111731843576</v>
+        <v>29.38372964978487</v>
       </c>
       <c r="CT6">
-        <v>23.1284916201117</v>
+        <v>10.8351695134527</v>
+      </c>
+      <c r="CU6">
+        <v>21.63298735772322</v>
+      </c>
+      <c r="CV6">
+        <v>3.247118952989496</v>
+      </c>
+      <c r="CW6">
+        <v>25.38432484668502</v>
       </c>
       <c r="CX6">
-        <v>10.05586592178771</v>
+        <v>19.93556299133525</v>
+      </c>
+      <c r="CY6">
+        <v>7.067375319731781</v>
+      </c>
+      <c r="CZ6">
+        <v>34.6514002571396</v>
       </c>
       <c r="DA6">
-        <v>66.3687150837988</v>
+        <v>12.18126566959211</v>
       </c>
       <c r="DB6">
-        <v>13.072625698324</v>
+        <v>40.55506493347221</v>
       </c>
       <c r="DD6">
-        <v>5.02793296089385</v>
+        <v>16.5713559209882</v>
       </c>
       <c r="DE6">
-        <v>26.14525139664805</v>
+        <v>25.78847563846331</v>
+      </c>
+      <c r="DF6">
+        <v>1.151377263310337</v>
       </c>
       <c r="DG6">
-        <v>40.22346368715085</v>
+        <v>28.00033310949289</v>
+      </c>
+      <c r="DH6">
+        <v>16.93848783412145</v>
       </c>
       <c r="DI6">
-        <v>16.08938547486031</v>
+        <v>25.4289381407298</v>
       </c>
       <c r="DJ6">
-        <v>3.016759776536304</v>
+        <v>49.19592815199825</v>
+      </c>
+      <c r="DK6">
+        <v>10.44240922575382</v>
       </c>
       <c r="DL6">
-        <v>47.26256983240219</v>
+        <v>0.3965178690007747</v>
+      </c>
+      <c r="DM6">
+        <v>75.68559058341594</v>
+      </c>
+      <c r="DN6">
+        <v>45.9345419764818</v>
       </c>
       <c r="DO6">
-        <v>32.17877094972067</v>
+        <v>33.69789445340393</v>
+      </c>
+      <c r="DP6">
+        <v>25.32538133896091</v>
+      </c>
+      <c r="DQ6">
+        <v>16.50574684319145</v>
+      </c>
+      <c r="DR6">
+        <v>0.7937623864762458</v>
       </c>
       <c r="DS6">
-        <v>4.022346368715091</v>
+        <v>0.857368234859905</v>
+      </c>
+      <c r="DT6">
+        <v>11.73156648477234</v>
       </c>
       <c r="DU6">
-        <v>11.06145251396649</v>
+        <v>12.13286408990683</v>
       </c>
       <c r="DV6">
-        <v>7.039106145251395</v>
+        <v>0.152140351102247</v>
       </c>
       <c r="DW6">
-        <v>49.27374301675977</v>
+        <v>81.89060832750965</v>
       </c>
       <c r="DX6">
-        <v>3.016759776536318</v>
+        <v>6.915411448511335</v>
+      </c>
+      <c r="DY6">
+        <v>8.857125363758598</v>
+      </c>
+      <c r="DZ6">
+        <v>42.72023086519414</v>
+      </c>
+      <c r="EB6">
+        <v>9.555531245169533</v>
+      </c>
+      <c r="EC6">
+        <v>1.969468302713892</v>
+      </c>
+      <c r="ED6">
+        <v>11.13336083645797</v>
+      </c>
+      <c r="EE6">
+        <v>18.07754242253225</v>
+      </c>
+      <c r="EF6">
+        <v>0.5426861576572435</v>
+      </c>
+      <c r="EG6">
+        <v>16.38713122748959</v>
+      </c>
+      <c r="EH6">
+        <v>0.2896755655575873</v>
+      </c>
+      <c r="EI6">
+        <v>5.471408187352111</v>
+      </c>
+      <c r="EJ6">
+        <v>7.596335531437902</v>
+      </c>
+      <c r="EK6">
+        <v>1.336805642666405</v>
+      </c>
+      <c r="EL6">
+        <v>89.57110951225562</v>
       </c>
       <c r="EM6">
-        <v>1.005586592178759</v>
+        <v>5.176402794463669</v>
       </c>
       <c r="EN6">
-        <v>5.02793296089385</v>
+        <v>6.199043538975843</v>
       </c>
       <c r="EO6">
-        <v>1.005586592178759</v>
+        <v>13.11983403685389</v>
       </c>
       <c r="EP6">
-        <v>78.43575418994413</v>
+        <v>4.490685055302151</v>
       </c>
       <c r="EQ6">
-        <v>19.10614525139664</v>
+        <v>24.87660427322803</v>
+      </c>
+      <c r="ER6">
+        <v>2.604531301919167</v>
+      </c>
+      <c r="ES6">
+        <v>13.2606252241408</v>
       </c>
       <c r="ET6">
-        <v>14.07821229050279</v>
+        <v>1.128289216830893</v>
+      </c>
+      <c r="EU6">
+        <v>8.632115313147295</v>
       </c>
       <c r="EV6">
-        <v>10.0558659217877</v>
+        <v>14.1161060879742</v>
+      </c>
+      <c r="EW6">
+        <v>11.30195817929172</v>
       </c>
       <c r="EX6">
-        <v>12.06703910614524</v>
+        <v>17.2538341458803</v>
+      </c>
+      <c r="EY6">
+        <v>10.52222565735454</v>
+      </c>
+      <c r="EZ6">
+        <v>16.05731121255491</v>
       </c>
       <c r="FA6">
-        <v>28.1564245810056</v>
+        <v>0.08429451436640534</v>
+      </c>
+      <c r="FB6">
+        <v>32.47846007870479</v>
+      </c>
+      <c r="FC6">
+        <v>12.14755585590407</v>
+      </c>
+      <c r="FD6">
+        <v>9.604069647442685</v>
       </c>
       <c r="FE6">
-        <v>74.41340782122901</v>
+        <v>4.997751716526153</v>
       </c>
       <c r="FF6">
-        <v>20.11173184357538</v>
+        <v>13.78693949651127</v>
       </c>
       <c r="FG6">
-        <v>82.4581005586592</v>
+        <v>19.56981899465978</v>
+      </c>
+      <c r="FH6">
+        <v>11.52025218386261</v>
+      </c>
+      <c r="FI6">
+        <v>17.11411996273077</v>
+      </c>
+      <c r="FJ6">
+        <v>11.16423812279776</v>
+      </c>
+      <c r="FK6">
+        <v>19.21578982450352</v>
       </c>
       <c r="FL6">
-        <v>12.0670391061452</v>
+        <v>38.20675036374536</v>
+      </c>
+      <c r="FM6">
+        <v>4.653307048285697</v>
       </c>
       <c r="FN6">
-        <v>20.11173184357544</v>
+        <v>15.06381990676421</v>
       </c>
       <c r="FO6">
-        <v>21.11731843575419</v>
+        <v>19.67742269736998</v>
+      </c>
+      <c r="FP6">
+        <v>5.492607877415367</v>
       </c>
       <c r="FQ6">
-        <v>26.14525139664805</v>
+        <v>8.705278449987304</v>
       </c>
       <c r="FR6">
-        <v>10.0558659217877</v>
+        <v>4.473668850611546</v>
+      </c>
+      <c r="FS6">
+        <v>38.21133059340944</v>
+      </c>
+      <c r="FT6">
+        <v>11.97717750560176</v>
+      </c>
+      <c r="FU6">
+        <v>30.1099414602227</v>
       </c>
       <c r="FV6">
-        <v>44.24581005586595</v>
+        <v>25.09044687198229</v>
       </c>
       <c r="FW6">
-        <v>0</v>
+        <v>14.27993718023988</v>
+      </c>
+      <c r="FX6">
+        <v>2.254288786350202</v>
       </c>
       <c r="FY6">
-        <v>7.039106145251395</v>
+        <v>6.39216012408383</v>
+      </c>
+      <c r="FZ6">
+        <v>29.02367198971668</v>
+      </c>
+      <c r="GA6">
+        <v>2.431740222994847</v>
       </c>
       <c r="GB6">
-        <v>1.005586592178815</v>
+        <v>76.16516289883302</v>
       </c>
       <c r="GC6">
-        <v>3.016759776536304</v>
+        <v>34.19422377697433</v>
       </c>
       <c r="GD6">
-        <v>9.050279329608898</v>
+        <v>29.95705069024613</v>
+      </c>
+      <c r="GE6">
+        <v>16.7714211020658</v>
       </c>
       <c r="GG6">
-        <v>75.4189944134078</v>
+        <v>2.845990805703025</v>
+      </c>
+      <c r="GH6">
+        <v>2.228413668903045</v>
+      </c>
+      <c r="GI6">
+        <v>26.69530383350545</v>
       </c>
       <c r="GJ6">
-        <v>4.022346368715077</v>
+        <v>11.55374789510154</v>
+      </c>
+      <c r="GK6">
+        <v>9.73273770474772</v>
       </c>
       <c r="GL6">
-        <v>4.022346368715091</v>
+        <v>7.218662232682135</v>
+      </c>
+      <c r="GM6">
+        <v>11.75593655182112</v>
       </c>
       <c r="GN6">
-        <v>74.41340782122903</v>
+        <v>58.3322966441897</v>
       </c>
       <c r="GO6">
-        <v>9.050279329608884</v>
+        <v>9.715152798397042</v>
+      </c>
+      <c r="GP6">
+        <v>3.05742272966755</v>
+      </c>
+      <c r="GQ6">
+        <v>3.296755511639859</v>
+      </c>
+      <c r="GR6">
+        <v>22.88881982811971</v>
       </c>
     </row>
     <row r="7" spans="1:201">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>40.2234636871509</v>
-      </c>
       <c r="C7">
-        <v>49.27374301675981</v>
+        <v>42.68060434749471</v>
       </c>
       <c r="D7">
-        <v>5.02793296089385</v>
+        <v>38.6779754956635</v>
+      </c>
+      <c r="E7">
+        <v>23.81264822920519</v>
       </c>
       <c r="F7">
-        <v>63.35195530726254</v>
-      </c>
-      <c r="G7">
-        <v>26.14525139664806</v>
+        <v>63.22155309695591</v>
       </c>
       <c r="H7">
-        <v>29.1620111731843</v>
-      </c>
-      <c r="I7">
-        <v>8.044692737430097</v>
+        <v>42.66524910516397</v>
+      </c>
+      <c r="J7">
+        <v>1.656626798286595</v>
+      </c>
+      <c r="K7">
+        <v>43.13638613694886</v>
       </c>
       <c r="L7">
-        <v>4.022346368715077</v>
+        <v>74.47398032922045</v>
+      </c>
+      <c r="M7">
+        <v>43.95124613067473</v>
       </c>
       <c r="N7">
-        <v>7.039106145251395</v>
-      </c>
-      <c r="R7">
-        <v>31.17318435754191</v>
+        <v>18.9322551539524</v>
+      </c>
+      <c r="O7">
+        <v>6.265146447466179</v>
+      </c>
+      <c r="P7">
+        <v>68.13402238528471</v>
+      </c>
+      <c r="Q7">
+        <v>14.49109508792084</v>
       </c>
       <c r="T7">
-        <v>85.47486033519556</v>
+        <v>9.31028792079502</v>
+      </c>
+      <c r="U7">
+        <v>9.119977628824699</v>
       </c>
       <c r="V7">
-        <v>87.4860335195531</v>
-      </c>
-      <c r="X7">
-        <v>89.49720670391059</v>
+        <v>19.0001530699312</v>
+      </c>
+      <c r="W7">
+        <v>16.4221807405395</v>
       </c>
       <c r="Y7">
-        <v>70.39106145251394</v>
+        <v>41.41672071643839</v>
       </c>
       <c r="Z7">
-        <v>44.2458100558659</v>
+        <v>41.95669281782685</v>
       </c>
       <c r="AA7">
-        <v>15.08379888268161</v>
+        <v>9.5896876070979</v>
       </c>
       <c r="AC7">
-        <v>48.26815642458099</v>
-      </c>
-      <c r="AD7">
-        <v>30.1675977653631</v>
+        <v>6.461324973707491</v>
       </c>
       <c r="AE7">
-        <v>20.11173184357541</v>
+        <v>9.798971161301296</v>
+      </c>
+      <c r="AF7">
+        <v>0.6805617577027903</v>
+      </c>
+      <c r="AG7">
+        <v>26.17787456060398</v>
       </c>
       <c r="AH7">
-        <v>11.06145251396649</v>
+        <v>6.850653656847399</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>37.77524640292678</v>
       </c>
       <c r="AJ7">
-        <v>6.033519553072608</v>
+        <v>18.90420980974338</v>
       </c>
       <c r="AK7">
-        <v>39.2178770949721</v>
+        <v>9.418760313374094</v>
       </c>
       <c r="AL7">
-        <v>81.45251396648041</v>
+        <v>3.17664452213171</v>
       </c>
       <c r="AM7">
-        <v>28.15642458100561</v>
+        <v>2.71380848116101</v>
       </c>
       <c r="AO7">
-        <v>11.06145251396649</v>
+        <v>5.536331117074909</v>
       </c>
       <c r="AP7">
-        <v>49.27374301675979</v>
+        <v>22.03369471184861</v>
       </c>
       <c r="AQ7">
-        <v>9.050279329608998</v>
+        <v>40.60370011117655</v>
       </c>
       <c r="AR7">
-        <v>9.050279329608998</v>
+        <v>26.0113238914174</v>
+      </c>
+      <c r="AS7">
+        <v>20.1169643443651</v>
       </c>
       <c r="AT7">
-        <v>1.005586592178773</v>
+        <v>11.12351264659841</v>
+      </c>
+      <c r="AU7">
+        <v>82.54932250845374</v>
       </c>
       <c r="AV7">
-        <v>77.43016759776539</v>
+        <v>55.57312391060511</v>
       </c>
       <c r="AW7">
-        <v>7.039106145251395</v>
+        <v>13.5768199455301</v>
       </c>
       <c r="AX7">
-        <v>4.022346368715091</v>
+        <v>66.60561885585702</v>
+      </c>
+      <c r="AY7">
+        <v>28.67885225929531</v>
       </c>
       <c r="AZ7">
-        <v>61.34078212290501</v>
+        <v>12.43952064736528</v>
       </c>
       <c r="BA7">
-        <v>64.35754189944137</v>
+        <v>60.37765070329826</v>
       </c>
       <c r="BB7">
-        <v>2.011173184357489</v>
+        <v>48.95768809906389</v>
       </c>
       <c r="BC7">
-        <v>86.48044692737433</v>
+        <v>27.17759301326291</v>
+      </c>
+      <c r="BD7">
+        <v>25.66721636279073</v>
       </c>
       <c r="BE7">
-        <v>11.06145251396647</v>
+        <v>10.20447240943366</v>
       </c>
       <c r="BF7">
-        <v>1.005586592178815</v>
+        <v>35.02800837118548</v>
       </c>
       <c r="BG7">
-        <v>15.08379888268155</v>
+        <v>48.15419732973332</v>
+      </c>
+      <c r="BH7">
+        <v>4.241798052946336</v>
       </c>
       <c r="BI7">
-        <v>2.011173184357531</v>
+        <v>17.20318759391256</v>
       </c>
       <c r="BJ7">
-        <v>13.07262569832402</v>
+        <v>13.90819026344238</v>
+      </c>
+      <c r="BK7">
+        <v>12.64990319418</v>
       </c>
       <c r="BL7">
-        <v>13.07262569832402</v>
+        <v>28.09651384906648</v>
       </c>
       <c r="BM7">
-        <v>2.011173184357546</v>
+        <v>12.70210706306761</v>
+      </c>
+      <c r="BN7">
+        <v>13.13347002697022</v>
+      </c>
+      <c r="BO7">
+        <v>16.158892681529</v>
+      </c>
+      <c r="BP7">
+        <v>5.173315382641491</v>
+      </c>
+      <c r="BQ7">
+        <v>30.10893752370521</v>
       </c>
       <c r="BR7">
-        <v>17.09497206703909</v>
+        <v>1.659829253506416</v>
       </c>
       <c r="BS7">
-        <v>57.31843575418998</v>
+        <v>47.16902811181495</v>
       </c>
       <c r="BT7">
-        <v>45.25139664804468</v>
+        <v>10.70496902396212</v>
       </c>
       <c r="BU7">
-        <v>22.12290502793296</v>
+        <v>42.77195116383291</v>
       </c>
       <c r="BV7">
-        <v>19.10614525139664</v>
+        <v>20.94164705333775</v>
       </c>
       <c r="BW7">
-        <v>18.10055865921788</v>
+        <v>4.370456005144135</v>
       </c>
       <c r="BX7">
-        <v>3.016759776536304</v>
-      </c>
-      <c r="CA7">
-        <v>2.011173184357546</v>
+        <v>47.30021644690388</v>
+      </c>
+      <c r="BY7">
+        <v>54.14141600041049</v>
+      </c>
+      <c r="BZ7">
+        <v>0.5289230959507023</v>
       </c>
       <c r="CB7">
-        <v>82.45810055865918</v>
+        <v>31.35900968439582</v>
       </c>
       <c r="CC7">
-        <v>12.06703910614524</v>
+        <v>18.48857957301645</v>
       </c>
       <c r="CD7">
-        <v>47.26256983240225</v>
+        <v>70.1027874762638</v>
       </c>
       <c r="CE7">
-        <v>7.039106145251395</v>
+        <v>15.9235914198529</v>
       </c>
       <c r="CF7">
-        <v>8.044692737430168</v>
+        <v>39.16886269693559</v>
       </c>
       <c r="CG7">
-        <v>1.005586592178773</v>
+        <v>21.44461111088484</v>
       </c>
       <c r="CH7">
-        <v>25.13966480446928</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
+        <v>2.834511297871103</v>
+      </c>
+      <c r="CI7">
+        <v>29.83320380064802</v>
       </c>
       <c r="CK7">
-        <v>6.033519553072608</v>
+        <v>16.44577237793612</v>
+      </c>
+      <c r="CL7">
+        <v>28.63050879007967</v>
       </c>
       <c r="CM7">
-        <v>12.06703910614529</v>
+        <v>30.89136144373347</v>
       </c>
       <c r="CN7">
-        <v>10.0558659217877</v>
+        <v>26.75905451608021</v>
+      </c>
+      <c r="CO7">
+        <v>1.547787254622605</v>
       </c>
       <c r="CP7">
-        <v>26.14525139664811</v>
+        <v>4.658518721680011</v>
       </c>
       <c r="CQ7">
-        <v>47.26256983240228</v>
+        <v>54.68807031331653</v>
+      </c>
+      <c r="CR7">
+        <v>30.3554368154537</v>
       </c>
       <c r="CS7">
-        <v>8.044692737430168</v>
+        <v>29.79989626947116</v>
+      </c>
+      <c r="CT7">
+        <v>12.12852978327319</v>
+      </c>
+      <c r="CU7">
+        <v>49.5726193841458</v>
+      </c>
+      <c r="CV7">
+        <v>11.2938396868951</v>
       </c>
       <c r="CW7">
-        <v>53.29608938547486</v>
+        <v>21.07365258886036</v>
       </c>
       <c r="CX7">
-        <v>18.10055865921785</v>
+        <v>75.86994228806471</v>
+      </c>
+      <c r="CY7">
+        <v>19.87899922830366</v>
+      </c>
+      <c r="CZ7">
+        <v>46.49419972312401</v>
       </c>
       <c r="DA7">
-        <v>15.08379888268161</v>
+        <v>8.925050858600613</v>
       </c>
       <c r="DB7">
-        <v>12.0670391061453</v>
+        <v>12.77772191825736</v>
       </c>
       <c r="DD7">
-        <v>10.0558659217877</v>
+        <v>16.72559371145078</v>
       </c>
       <c r="DE7">
-        <v>41.22905027932956</v>
+        <v>28.04382765640271</v>
+      </c>
+      <c r="DF7">
+        <v>13.83476009943323</v>
       </c>
       <c r="DG7">
-        <v>63.35195530726256</v>
+        <v>73.41378590211264</v>
+      </c>
+      <c r="DH7">
+        <v>17.24784692403449</v>
       </c>
       <c r="DI7">
-        <v>26.14525139664801</v>
+        <v>0.3384667629514979</v>
       </c>
       <c r="DJ7">
-        <v>29.16201117318437</v>
+        <v>82.90178904868013</v>
       </c>
       <c r="DK7">
-        <v>43.24022346368719</v>
+        <v>0.7875472148279812</v>
       </c>
       <c r="DL7">
-        <v>41.2290502793297</v>
+        <v>0.2916011927318038</v>
+      </c>
+      <c r="DM7">
+        <v>81.70974681628957</v>
+      </c>
+      <c r="DN7">
+        <v>15.85416980410511</v>
       </c>
       <c r="DO7">
-        <v>52.29050279329607</v>
+        <v>47.26495260411549</v>
+      </c>
+      <c r="DP7">
+        <v>46.55812668536567</v>
+      </c>
+      <c r="DQ7">
+        <v>21.35638738111523</v>
+      </c>
+      <c r="DR7">
+        <v>3.771873285659197</v>
       </c>
       <c r="DS7">
-        <v>2.011173184357546</v>
+        <v>10.55094703363019</v>
+      </c>
+      <c r="DT7">
+        <v>26.02146459312769</v>
       </c>
       <c r="DU7">
-        <v>23.12849162011173</v>
+        <v>28.65654387400822</v>
       </c>
       <c r="DV7">
-        <v>22.12290502793296</v>
+        <v>25.54626403402153</v>
+      </c>
+      <c r="DW7">
+        <v>80.04390585630415</v>
       </c>
       <c r="DX7">
-        <v>13.07262569832402</v>
+        <v>0.07415005640362438</v>
+      </c>
+      <c r="DY7">
+        <v>11.84716706510649</v>
+      </c>
+      <c r="DZ7">
+        <v>4.816692444858802</v>
+      </c>
+      <c r="EA7">
+        <v>69.33045402287496</v>
+      </c>
+      <c r="EB7">
+        <v>56.90271894373522</v>
+      </c>
+      <c r="EC7">
+        <v>6.579967857976897</v>
+      </c>
+      <c r="ED7">
+        <v>60.56779384419131</v>
+      </c>
+      <c r="EE7">
+        <v>20.90831669356976</v>
+      </c>
+      <c r="EF7">
+        <v>0.6849206859152162</v>
       </c>
       <c r="EG7">
-        <v>1.005586592178759</v>
+        <v>18.1718443642842</v>
+      </c>
+      <c r="EH7">
+        <v>5.07049944556988</v>
+      </c>
+      <c r="EI7">
+        <v>1.083719409445095</v>
+      </c>
+      <c r="EJ7">
+        <v>5.524451501624299</v>
+      </c>
+      <c r="EK7">
+        <v>1.176054669617201</v>
+      </c>
+      <c r="EL7">
+        <v>83.82921781998311</v>
       </c>
       <c r="EM7">
-        <v>6.033519553072637</v>
+        <v>5.494995363239298</v>
       </c>
       <c r="EN7">
-        <v>12.06703910614526</v>
+        <v>3.674662291529117</v>
       </c>
       <c r="EO7">
-        <v>10.05586592178771</v>
+        <v>22.16302560627319</v>
       </c>
       <c r="EP7">
-        <v>65.36312849162007</v>
+        <v>10.36137636238905</v>
       </c>
       <c r="EQ7">
-        <v>22.12290502793303</v>
+        <v>41.13476383284989</v>
+      </c>
+      <c r="ER7">
+        <v>9.4224079111587</v>
+      </c>
+      <c r="ES7">
+        <v>10.3262224291218</v>
       </c>
       <c r="ET7">
-        <v>25.13966480446928</v>
+        <v>6.92071464460858</v>
+      </c>
+      <c r="EU7">
+        <v>8.359860289560316</v>
+      </c>
+      <c r="EV7">
+        <v>3.206762065511199</v>
+      </c>
+      <c r="EW7">
+        <v>3.599293464437011</v>
       </c>
       <c r="EX7">
-        <v>14.07821229050279</v>
+        <v>19.7816274992758</v>
       </c>
       <c r="EY7">
-        <v>3.016759776536318</v>
+        <v>0.7169026240224952</v>
+      </c>
+      <c r="EZ7">
+        <v>5.965214204774426</v>
+      </c>
+      <c r="FA7">
+        <v>13.53334015677351</v>
+      </c>
+      <c r="FB7">
+        <v>19.68395754466398</v>
+      </c>
+      <c r="FC7">
+        <v>4.611598303534493</v>
+      </c>
+      <c r="FD7">
+        <v>21.94299725531539</v>
       </c>
       <c r="FE7">
-        <v>7.039106145251395</v>
+        <v>6.623608467462319</v>
       </c>
       <c r="FF7">
-        <v>13.07262569832399</v>
+        <v>3.734257390258293</v>
       </c>
       <c r="FG7">
-        <v>82.4581005586592</v>
+        <v>13.61299467517749</v>
+      </c>
+      <c r="FH7">
+        <v>7.43459678385841</v>
+      </c>
+      <c r="FI7">
+        <v>8.527453353553156</v>
+      </c>
+      <c r="FJ7">
+        <v>4.993230973121598</v>
+      </c>
+      <c r="FK7">
+        <v>13.21623614894951</v>
       </c>
       <c r="FL7">
-        <v>10.0558659217877</v>
+        <v>42.35493107696806</v>
+      </c>
+      <c r="FM7">
+        <v>3.559865415096155</v>
       </c>
       <c r="FN7">
-        <v>3.016759776536333</v>
-      </c>
-      <c r="FO7">
-        <v>10.05586592178769</v>
+        <v>8.296202973148112</v>
+      </c>
+      <c r="FP7">
+        <v>4.728088569691991</v>
       </c>
       <c r="FQ7">
-        <v>36.20111731843576</v>
+        <v>3.561703566773531</v>
       </c>
       <c r="FR7">
-        <v>1.005586592178787</v>
+        <v>3.041872402915061</v>
+      </c>
+      <c r="FS7">
+        <v>39.89962693569963</v>
+      </c>
+      <c r="FT7">
+        <v>2.91894239323139</v>
+      </c>
+      <c r="FU7">
+        <v>34.2755828845072</v>
+      </c>
+      <c r="FV7">
+        <v>32.28167846265391</v>
+      </c>
+      <c r="FW7">
+        <v>8.996052363410186</v>
+      </c>
+      <c r="FX7">
+        <v>0.4551913221218342</v>
+      </c>
+      <c r="FY7">
+        <v>7.537856310352865</v>
+      </c>
+      <c r="FZ7">
+        <v>38.73763626496986</v>
+      </c>
+      <c r="GA7">
+        <v>12.86013848324689</v>
       </c>
       <c r="GB7">
-        <v>17.09497206703912</v>
+        <v>81.25864192270726</v>
       </c>
       <c r="GC7">
-        <v>1.005586592178787</v>
+        <v>30.2342833340866</v>
       </c>
       <c r="GD7">
-        <v>8.044692737430196</v>
+        <v>38.09464853659276</v>
+      </c>
+      <c r="GE7">
+        <v>4.561960073732195</v>
+      </c>
+      <c r="GG7">
+        <v>17.82796168348679</v>
+      </c>
+      <c r="GH7">
+        <v>15.39180941048841</v>
+      </c>
+      <c r="GI7">
+        <v>21.34513661372604</v>
+      </c>
+      <c r="GJ7">
+        <v>20.50585047663979</v>
+      </c>
+      <c r="GK7">
+        <v>7.567190197825838</v>
+      </c>
+      <c r="GL7">
+        <v>3.193317889691826</v>
+      </c>
+      <c r="GM7">
+        <v>22.54325949746143</v>
+      </c>
+      <c r="GN7">
+        <v>39.13123523214088</v>
+      </c>
+      <c r="GO7">
+        <v>14.05717360855991</v>
+      </c>
+      <c r="GP7">
+        <v>8.119505552888754</v>
+      </c>
+      <c r="GQ7">
+        <v>9.948331218276238</v>
+      </c>
+      <c r="GR7">
+        <v>8.557961875061494</v>
       </c>
     </row>
   </sheetData>
